--- a/data/trans_bre/P7A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P7A_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,34</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,25</t>
+          <t>9,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,11</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,47</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>22,06</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>7,83%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11,31%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>40,53%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 19,41</t>
+          <t>-13,01; 18,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 22,88</t>
+          <t>-2,26; 26,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,21; 18,28</t>
+          <t>-4,14; 15,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 17,97</t>
+          <t>-1,83; 17,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 14,74</t>
+          <t>9,02; 41,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,89; 35,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 45,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,72; 36,16</t>
+          <t>-17,99; 36,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 34,48</t>
+          <t>-3,49; 58,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 29,34</t>
+          <t>-6,32; 30,14</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 32,06</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>13,47; 106,53</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>-2,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-3,26%</t>
+          <t>5,72%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10,64%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7,2%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 9,29</t>
+          <t>-8,72; 6,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 10,2</t>
+          <t>-7,82; 7,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 8,03</t>
+          <t>-4,62; 7,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 7,87</t>
+          <t>-2,42; 8,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 5,18</t>
+          <t>-5,06; 12,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 36,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 41,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 32,95</t>
+          <t>-25,02; 25,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 32,22</t>
+          <t>-21,36; 27,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-21,04; 19,87</t>
+          <t>-14,7; 31,35</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-7,83; 33,37</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-12,73; 37,86</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-8,04</t>
+          <t>-7,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,0</t>
+          <t>-9,44</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,96</t>
+          <t>-11,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,1</t>
+          <t>-7,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-27,32%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-27,47%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-30,58%</t>
+          <t>-26,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-24,64%</t>
+          <t>-31,59%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-10,81%</t>
+          <t>-34,8%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-24,52%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-15,07%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,97; -2,13</t>
+          <t>-15,94; 0,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,17; -2,06</t>
+          <t>-16,66; -1,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,38; -2,78</t>
+          <t>-17,43; -4,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,83; -0,5</t>
+          <t>-12,82; -1,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 6,05</t>
+          <t>-11,88; 2,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,78; -7,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-44,52; -7,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-43,88; -10,03</t>
+          <t>-47,32; 3,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-38,03; -1,53</t>
+          <t>-49,03; -7,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-34,85; 28,68</t>
+          <t>-48,5; -14,99</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-39,33; -6,16</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-33,77; 11,72</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>8,34</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>11,89</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>11,74</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>36,28%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>38,56%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-5,87%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 7,81</t>
+          <t>3,33; 13,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 8,24</t>
+          <t>5,46; 18,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 6,09</t>
+          <t>4,03; 19,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 6,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 6,71</t>
+          <t>-10,88; 5,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 24,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 25,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 18,66</t>
+          <t>8,82; 43,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 21,15</t>
+          <t>15,07; 62,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 20,02</t>
+          <t>11,94; 76,69</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-22,94; 15,69</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,74</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,23</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,45</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10,66%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12,2%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,1%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,59%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8,78%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,21; 7,43</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 8,94</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,8; 5,19</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 5,37</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 8,36</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 22,9</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 28,19</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-4,86; 15,96</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,58; 16,53</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 23,2</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
